--- a/data/trans_media/Q15_2-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q15_2-Provincia-trans_media.xlsx
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,7</t>
+          <t>1,0; 1,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,28</t>
+          <t>1,0; 1,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,66</t>
+          <t>1,0; 1,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,89</t>
+          <t>1,19; 1,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,4</t>
+          <t>1,0; 1,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,46</t>
+          <t>1,3; 2,43</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,28</t>
+          <t>1,0; 1,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,43</t>
+          <t>1,0; 1,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,55</t>
+          <t>1,0; 1,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,29</t>
+          <t>1,0; 1,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,27</t>
+          <t>1,0; 2,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,2</t>
+          <t>1,0; 1,21</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,35</t>
+          <t>1,0; 1,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,01</t>
+          <t>1,06; 2,03</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,32</t>
+          <t>1,0; 1,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,97</t>
+          <t>1,0; 1,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,25</t>
+          <t>1,0; 1,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,71</t>
+          <t>1,0; 1,73</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,39</t>
+          <t>1,0; 1,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,73</t>
+          <t>1,13; 1,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,19</t>
+          <t>1,0; 1,2</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,45</t>
+          <t>1,07; 1,47</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,22</t>
+          <t>1,0; 1,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,35</t>
+          <t>1,0; 1,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,18</t>
+          <t>1,0; 1,2</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,5</t>
+          <t>1,0; 1,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,31</t>
+          <t>1,0; 1,3</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1854,22 +1854,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,13</t>
+          <t>1,02; 1,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,6</t>
+          <t>1,08; 1,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,05</t>
+          <t>1,0; 1,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,14</t>
+          <t>1,03; 1,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1879,12 +1879,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,33</t>
+          <t>1,11; 1,31</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,02</t>
+          <t>1,0; 1,03</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,37</t>
+          <t>1,12; 1,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q15_2-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q15_2-Provincia-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,66</t>
+          <t>1,0; 1,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,34</t>
+          <t>1,0; 1,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,67</t>
+          <t>1,0; 1,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,48</t>
+          <t>1,0; 1,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1009,52 +1009,52 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>1,0; 1,28</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 1,5</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 1,53</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 1,29</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 2,45</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 1,21</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>1,0; 1,37</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,51</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,53</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,3</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 2,45</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,21</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,37</t>
+          <t>1,0; 1,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,57</t>
+          <t>1,0; 1,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,38</t>
+          <t>1,0; 1,39</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,2</t>
+          <t>1,0; 1,18</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,24</t>
+          <t>1,0; 1,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,12</t>
+          <t>1,0; 1,1</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1724,12 +1724,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,2</t>
+          <t>1,0; 1,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,52</t>
+          <t>1,0; 1,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1744,12 +1744,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,1</t>
+          <t>1,0; 1,09</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,3</t>
+          <t>1,0; 1,31</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1864,12 +1864,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,06</t>
+          <t>1,0; 1,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,15</t>
+          <t>1,02; 1,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
